--- a/out/production/untitled1/testData/TestData.xlsx
+++ b/out/production/untitled1/testData/TestData.xlsx
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -444,6 +444,11 @@
       </c>
       <c r="D2" s="1"/>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
